--- a/data/trans_orig/P36BPD11_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD11_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>288451</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262679</v>
+        <v>265143</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>311524</v>
+        <v>312224</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5238672843435821</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4770619792226166</v>
+        <v>0.4815371580858755</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5657709681907389</v>
+        <v>0.5670422919590163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>435</v>
@@ -762,19 +762,19 @@
         <v>308382</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>290087</v>
+        <v>289004</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>328147</v>
+        <v>325089</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6313993960274926</v>
+        <v>0.6313993960274924</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5939406698721319</v>
+        <v>0.5917239276867129</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6718656510620025</v>
+        <v>0.6656047913565927</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>727</v>
@@ -783,19 +783,19 @@
         <v>596833</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>565972</v>
+        <v>565158</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>627840</v>
+        <v>628512</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5744143299384282</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5447126135123181</v>
+        <v>0.5439287355344252</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6042564023563</v>
+        <v>0.6049031934910247</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>198964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>176067</v>
+        <v>175977</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>223193</v>
+        <v>221974</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3613459509978344</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3197618241089396</v>
+        <v>0.3195999446796448</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4053500929086059</v>
+        <v>0.4031368870242156</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>184</v>
@@ -833,19 +833,19 @@
         <v>132411</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114926</v>
+        <v>115592</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>149479</v>
+        <v>150067</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2711066170873766</v>
+        <v>0.2711066170873765</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2353059868394884</v>
+        <v>0.2366686449953475</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3060518552927137</v>
+        <v>0.3072565886055584</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>378</v>
@@ -854,19 +854,19 @@
         <v>331375</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>301421</v>
+        <v>301106</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>360275</v>
+        <v>360885</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3189276291199153</v>
+        <v>0.3189276291199152</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2900983808983758</v>
+        <v>0.2897951200447995</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3467416640277792</v>
+        <v>0.3473295565791318</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>63204</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48326</v>
+        <v>49986</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77945</v>
+        <v>78845</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1147867646585836</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08776717753925969</v>
+        <v>0.09078149465367719</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1415585880133301</v>
+        <v>0.1431937454183457</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>67</v>
@@ -904,19 +904,19 @@
         <v>47617</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37521</v>
+        <v>37231</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>59994</v>
+        <v>59061</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09749398688513099</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07682288598415581</v>
+        <v>0.07622952620311034</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1228345746982022</v>
+        <v>0.1209253333611575</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>135</v>
@@ -925,19 +925,19 @@
         <v>110821</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92882</v>
+        <v>93568</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>130359</v>
+        <v>132228</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1066580409416566</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08939311095829702</v>
+        <v>0.0900528543637476</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1254620788535096</v>
+        <v>0.1272611426728923</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>236584</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>212247</v>
+        <v>213423</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>259607</v>
+        <v>260022</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4896068816080208</v>
+        <v>0.4896068816080207</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4392414667133102</v>
+        <v>0.4416758208233784</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5372522876877834</v>
+        <v>0.5381116896534404</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>321</v>
@@ -1050,19 +1050,19 @@
         <v>220912</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>203181</v>
+        <v>201706</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>239733</v>
+        <v>238662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5229862562302857</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4810096536929807</v>
+        <v>0.4775177217777792</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5675430649206785</v>
+        <v>0.5650081975765906</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>562</v>
@@ -1071,19 +1071,19 @@
         <v>457496</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>429443</v>
+        <v>427794</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>485765</v>
+        <v>486944</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5051759468510987</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.474199444670916</v>
+        <v>0.4723783048983968</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5363910728229047</v>
+        <v>0.5376927299927624</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>175079</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>154756</v>
+        <v>154910</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>198169</v>
+        <v>198286</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3623236827828044</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.320265455422</v>
+        <v>0.3205830803493638</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.410108564565141</v>
+        <v>0.4103503014104475</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>191</v>
@@ -1121,19 +1121,19 @@
         <v>141164</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>124759</v>
+        <v>124263</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>158595</v>
+        <v>158140</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3341900945740262</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2953546099780723</v>
+        <v>0.2941795619338518</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3754576705863593</v>
+        <v>0.3743803461473879</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>361</v>
@@ -1142,19 +1142,19 @@
         <v>316243</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>289908</v>
+        <v>288175</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>341797</v>
+        <v>345224</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3492013976800695</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3201223193319676</v>
+        <v>0.3182086113961091</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3774189364455064</v>
+        <v>0.3812029204690273</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>71549</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55287</v>
+        <v>55527</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89693</v>
+        <v>89073</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1480694356091748</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1144158526302409</v>
+        <v>0.1149120325961016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1856175307231683</v>
+        <v>0.1843353238453913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -1192,19 +1192,19 @@
         <v>60329</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47626</v>
+        <v>47814</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74604</v>
+        <v>75363</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.142823649195688</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1127485218635704</v>
+        <v>0.1131958076903566</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.176616530753709</v>
+        <v>0.1784145478916811</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -1213,19 +1213,19 @@
         <v>131878</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112559</v>
+        <v>113155</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153790</v>
+        <v>154785</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1456226554688318</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1242898453805189</v>
+        <v>0.1249478285402331</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1698181800826668</v>
+        <v>0.170916454408461</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>209206</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>188346</v>
+        <v>185931</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>232072</v>
+        <v>230592</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.443597253625194</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3993661740396831</v>
+        <v>0.3942466855967353</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4920815756826411</v>
+        <v>0.4889433654814812</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>152</v>
@@ -1338,19 +1338,19 @@
         <v>96573</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>84550</v>
+        <v>86280</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>107739</v>
+        <v>108322</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5150640474006397</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4509397231952171</v>
+        <v>0.4601691594512223</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5746172464049362</v>
+        <v>0.5777285173196709</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>375</v>
@@ -1359,19 +1359,19 @@
         <v>305779</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>279837</v>
+        <v>280055</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>331237</v>
+        <v>330238</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4639274718398511</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4245688000647088</v>
+        <v>0.4248998249552188</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.502552488088062</v>
+        <v>0.5010364190307028</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>180703</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>159021</v>
+        <v>158393</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>202550</v>
+        <v>202120</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.383159800860347</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.337186816903966</v>
+        <v>0.3358537458191138</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4294838869396295</v>
+        <v>0.4285731500265986</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -1409,19 +1409,19 @@
         <v>66310</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55705</v>
+        <v>55877</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77659</v>
+        <v>77411</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3536593875395064</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2970999821142121</v>
+        <v>0.2980171754415513</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4141876695938851</v>
+        <v>0.4128631150346642</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>283</v>
@@ -1430,19 +1430,19 @@
         <v>247013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>222132</v>
+        <v>223060</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>270819</v>
+        <v>272610</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3747677937679381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3370187356173067</v>
+        <v>0.3384259671513932</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4108864028434918</v>
+        <v>0.4136043289512034</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>81703</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64585</v>
+        <v>64658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101364</v>
+        <v>100202</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1732429455144591</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1369457647609399</v>
+        <v>0.1371009539476841</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2149316828866395</v>
+        <v>0.2124661958454738</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -1480,19 +1480,19 @@
         <v>24614</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17906</v>
+        <v>17495</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33008</v>
+        <v>33473</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.131276565059854</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09549872314327908</v>
+        <v>0.09331063625534565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1760441922953196</v>
+        <v>0.1785273808566751</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>119</v>
@@ -1501,19 +1501,19 @@
         <v>106317</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>88259</v>
+        <v>88291</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>127603</v>
+        <v>127560</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1613047343922109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1339062404442124</v>
+        <v>0.1339545514002302</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.193598968278199</v>
+        <v>0.1935334287985842</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>516815</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>480031</v>
+        <v>478125</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>550373</v>
+        <v>552348</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4566137193212192</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4241148938697686</v>
+        <v>0.4224304709782418</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4862628996300891</v>
+        <v>0.4880076268857725</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>622</v>
@@ -1626,19 +1626,19 @@
         <v>407049</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>382138</v>
+        <v>380403</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>430236</v>
+        <v>431819</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4730833741529786</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4441306982714372</v>
+        <v>0.442114279238031</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5000319125426471</v>
+        <v>0.5018722562862072</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1156</v>
@@ -1647,19 +1647,19 @@
         <v>923864</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>878467</v>
+        <v>879721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>968038</v>
+        <v>964802</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.463726632264735</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4409400655495697</v>
+        <v>0.4415694686504638</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4858992481256939</v>
+        <v>0.4842751149646712</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>392791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>358687</v>
+        <v>357308</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>428555</v>
+        <v>427921</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3470370342208753</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3169053410080675</v>
+        <v>0.3156870832234434</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3786345119420536</v>
+        <v>0.3780743394217077</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>419</v>
@@ -1697,19 +1697,19 @@
         <v>309818</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>285673</v>
+        <v>286786</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>336312</v>
+        <v>336538</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3600788139904012</v>
+        <v>0.3600788139904013</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3320168981698723</v>
+        <v>0.3333099845961316</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3908714850709144</v>
+        <v>0.3911335366779879</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>793</v>
@@ -1718,19 +1718,19 @@
         <v>702609</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>658441</v>
+        <v>663143</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>745360</v>
+        <v>744755</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.352669516812451</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3304993194117023</v>
+        <v>0.3328594579735735</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3741276765628788</v>
+        <v>0.3738240936891576</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>222237</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>192638</v>
+        <v>194573</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>250796</v>
+        <v>253060</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1963492464579054</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1701989537523992</v>
+        <v>0.1719077289953824</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.221581905528444</v>
+        <v>0.2235825819852635</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>188</v>
@@ -1768,19 +1768,19 @@
         <v>143550</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>123010</v>
+        <v>123078</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>163464</v>
+        <v>163175</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.1668378118566202</v>
+        <v>0.1668378118566203</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1429655660966681</v>
+        <v>0.1430448833274922</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1899817924492472</v>
+        <v>0.189646401523601</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>398</v>
@@ -1789,19 +1789,19 @@
         <v>365787</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>327547</v>
+        <v>328356</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>401499</v>
+        <v>402851</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.183603850922814</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1644096687179999</v>
+        <v>0.1648157539565043</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2015292828544159</v>
+        <v>0.2022080946892304</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>243501</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>216472</v>
+        <v>217840</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269960</v>
+        <v>271830</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4313721610981507</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3834883136066757</v>
+        <v>0.3859125452204417</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4782442600967252</v>
+        <v>0.4815581023361196</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>607</v>
@@ -1914,19 +1914,19 @@
         <v>362509</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>338777</v>
+        <v>338446</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>385560</v>
+        <v>386510</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4376050329976211</v>
+        <v>0.437605032997621</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4089568683147081</v>
+        <v>0.408557402770567</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4654318684543046</v>
+        <v>0.4665787050851125</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>850</v>
@@ -1935,19 +1935,19 @@
         <v>606009</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>570806</v>
+        <v>570307</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>638949</v>
+        <v>639847</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4350790760672167</v>
+        <v>0.4350790760672168</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4098050571783949</v>
+        <v>0.4094465652054866</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4587275789507682</v>
+        <v>0.4593724611476427</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>203795</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>179932</v>
+        <v>178267</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>228613</v>
+        <v>229726</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3610310970749223</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3187563489336952</v>
+        <v>0.3158068094921498</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4049976750704123</v>
+        <v>0.4069687506640503</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>489</v>
@@ -1985,19 +1985,19 @@
         <v>331427</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>305745</v>
+        <v>307726</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>351907</v>
+        <v>355489</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4000847599829376</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3690820180352547</v>
+        <v>0.3714733653766504</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4248079411140191</v>
+        <v>0.4291314837084675</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>684</v>
@@ -2006,19 +2006,19 @@
         <v>535222</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>503901</v>
+        <v>500411</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>569859</v>
+        <v>566725</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.3842577267835937</v>
+        <v>0.3842577267835938</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.361770910128856</v>
+        <v>0.3592659609796097</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4091253858300206</v>
+        <v>0.4068753613627227</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>117184</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98537</v>
+        <v>95800</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>139936</v>
+        <v>138888</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2075967418269269</v>
+        <v>0.207596741826927</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1745626342533658</v>
+        <v>0.169713690525647</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2479022545938472</v>
+        <v>0.2460451414097808</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>190</v>
@@ -2056,19 +2056,19 @@
         <v>134456</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>116643</v>
+        <v>117452</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>155230</v>
+        <v>155994</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1623102070194414</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1408065736660323</v>
+        <v>0.1417836846330234</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1873872852602414</v>
+        <v>0.1883088149218063</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>296</v>
@@ -2077,19 +2077,19 @@
         <v>251641</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>226871</v>
+        <v>224683</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>280589</v>
+        <v>281879</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1806631971491895</v>
+        <v>0.1806631971491896</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1628796867910628</v>
+        <v>0.1613091913180498</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2014462199463126</v>
+        <v>0.2023728495961416</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>78898</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57582</v>
+        <v>57954</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>103293</v>
+        <v>101161</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.33258230519294</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2427274888365557</v>
+        <v>0.2442980701769684</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4354163593484238</v>
+        <v>0.4264289362174902</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>533</v>
@@ -2202,19 +2202,19 @@
         <v>367859</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>341949</v>
+        <v>337921</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>398370</v>
+        <v>395409</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4362465643904176</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4055195125343895</v>
+        <v>0.4007425819811607</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4724291906728176</v>
+        <v>0.4689176885845317</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>576</v>
@@ -2223,19 +2223,19 @@
         <v>446757</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>410333</v>
+        <v>410933</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>482268</v>
+        <v>484850</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.413485948600063</v>
+        <v>0.4134859486000629</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3797747278303953</v>
+        <v>0.3803300243269193</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4463528310910477</v>
+        <v>0.4487427832743024</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>110360</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88013</v>
+        <v>85722</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>136402</v>
+        <v>134899</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.465207261661929</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3710079402744974</v>
+        <v>0.3613502598945807</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5749839817066953</v>
+        <v>0.5686486210354161</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>440</v>
@@ -2273,19 +2273,19 @@
         <v>333973</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>308548</v>
+        <v>305131</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>361157</v>
+        <v>365119</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3960603334529512</v>
+        <v>0.3960603334529513</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3659086520513583</v>
+        <v>0.3618564307667029</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4282978875209607</v>
+        <v>0.4329974233023301</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>490</v>
@@ -2294,19 +2294,19 @@
         <v>444332</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>409261</v>
+        <v>405952</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>481154</v>
+        <v>479535</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4112422937373505</v>
+        <v>0.4112422937373504</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3787828896695777</v>
+        <v>0.3757205140529303</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4453214754168801</v>
+        <v>0.4438230148582389</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>47970</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28929</v>
+        <v>29198</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>71656</v>
+        <v>72141</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2022104331451311</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1219451939122431</v>
+        <v>0.1230787632075367</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3020563672160436</v>
+        <v>0.3041003675365608</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>184</v>
@@ -2344,19 +2344,19 @@
         <v>141405</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>118535</v>
+        <v>120745</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>165080</v>
+        <v>165269</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1676931021566312</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1405714385725161</v>
+        <v>0.1431918607261492</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1957689864507541</v>
+        <v>0.1959931479545284</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>203</v>
@@ -2365,19 +2365,19 @@
         <v>189375</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>160372</v>
+        <v>160515</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>223053</v>
+        <v>224297</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1752717576625865</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1484291179401377</v>
+        <v>0.1485614647329458</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2064418748744779</v>
+        <v>0.2075931873879492</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>1573454</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1507043</v>
+        <v>1514544</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1637593</v>
+        <v>1643333</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4575334524773667</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4382221898466022</v>
+        <v>0.440403304884069</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4761839758492565</v>
+        <v>0.4778529939518217</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2670</v>
@@ -2490,19 +2490,19 @@
         <v>1763284</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1709398</v>
+        <v>1708054</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1817054</v>
+        <v>1819170</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4857051663238038</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4708622077385573</v>
+        <v>0.4704919785864459</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5005165305527149</v>
+        <v>0.5010992360398319</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4246</v>
@@ -2511,19 +2511,19 @@
         <v>3336738</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3256900</v>
+        <v>3245532</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3421774</v>
+        <v>3417575</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4720006091350687</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4607070581372573</v>
+        <v>0.4590990223809883</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4840294886642201</v>
+        <v>0.4834355082399032</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>1261692</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1195891</v>
+        <v>1199176</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1328196</v>
+        <v>1327516</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.3668783036345346</v>
+        <v>0.3668783036345345</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3477444961264634</v>
+        <v>0.3486997054424166</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3862165562586452</v>
+        <v>0.3860188609782246</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1822</v>
@@ -2561,19 +2561,19 @@
         <v>1315102</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1261964</v>
+        <v>1261078</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1365070</v>
+        <v>1362453</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3622514368316461</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3476141298685788</v>
+        <v>0.3473702133107959</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3760153366922266</v>
+        <v>0.3752944693111142</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2989</v>
@@ -2582,19 +2582,19 @@
         <v>2576794</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2497450</v>
+        <v>2497361</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2657603</v>
+        <v>2662325</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3645022463156017</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3532785803835589</v>
+        <v>0.3532659909804637</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3759330576290865</v>
+        <v>0.3766010137372532</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>603847</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>550938</v>
+        <v>554699</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>658165</v>
+        <v>657347</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1755882438880988</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.160203201883152</v>
+        <v>0.1612969025212559</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1913829614278267</v>
+        <v>0.1911450994730033</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>744</v>
@@ -2632,19 +2632,19 @@
         <v>551972</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>513697</v>
+        <v>513614</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>594914</v>
+        <v>596413</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1520433968445501</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.141500313316357</v>
+        <v>0.1414776139867408</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1638719995689894</v>
+        <v>0.1642847924859213</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1298</v>
@@ -2653,19 +2653,19 @@
         <v>1155819</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1087902</v>
+        <v>1091140</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1220729</v>
+        <v>1223078</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1634971445493296</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1538899180249943</v>
+        <v>0.154347961787286</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1726791228254119</v>
+        <v>0.1730113969015621</v>
       </c>
     </row>
     <row r="31">
